--- a/examples/demo/demo.xlsx
+++ b/examples/demo/demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naqvis\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3288FC42-90E5-406F-991B-C8D690207817}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE015DCB-B2AE-4D23-B4FC-F0CA23D796C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DDAFE3E-36BA-4489-B16A-134BA1A124D9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="181">
   <si>
     <t>Rack</t>
   </si>
@@ -942,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B430EF93-2BC8-4290-84E2-B93F914039A2}">
   <dimension ref="A1:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:W1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N61" sqref="N61:S61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2114,12 +2114,20 @@
       <c r="B28" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="I28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2135,12 +2143,24 @@
       <c r="M28" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
+      <c r="N28" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>236</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="T28" s="1" t="s">
         <v>30</v>
       </c>
@@ -2158,12 +2178,20 @@
       <c r="B29" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="I29" s="1" t="s">
         <v>22</v>
       </c>
@@ -2179,12 +2207,24 @@
       <c r="M29" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
+      <c r="N29" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>236</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="T29" s="1" t="s">
         <v>30</v>
       </c>
@@ -2202,12 +2242,20 @@
       <c r="B30" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="I30" s="1" t="s">
         <v>22</v>
       </c>
@@ -2223,12 +2271,24 @@
       <c r="M30" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
+      <c r="N30" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>236</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="T30" s="1" t="s">
         <v>30</v>
       </c>
@@ -2246,12 +2306,20 @@
       <c r="B31" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="I31" s="1" t="s">
         <v>22</v>
       </c>
@@ -2267,12 +2335,24 @@
       <c r="M31" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
+      <c r="N31" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>236</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="T31" s="1" t="s">
         <v>30</v>
       </c>
@@ -2290,12 +2370,20 @@
       <c r="B32" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="I32" s="1" t="s">
         <v>22</v>
       </c>
@@ -2311,12 +2399,24 @@
       <c r="M32" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
+      <c r="N32" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>236</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="T32" s="1" t="s">
         <v>30</v>
       </c>
@@ -2334,12 +2434,20 @@
       <c r="B33" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="I33" s="1" t="s">
         <v>22</v>
       </c>
@@ -2355,12 +2463,24 @@
       <c r="M33" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
+      <c r="N33" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>229</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="T33" s="1" t="s">
         <v>30</v>
       </c>
@@ -2378,12 +2498,20 @@
       <c r="B34" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="I34" s="1" t="s">
         <v>22</v>
       </c>
@@ -2399,12 +2527,24 @@
       <c r="M34" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
+      <c r="N34" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>229</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="T34" s="1" t="s">
         <v>30</v>
       </c>
@@ -2422,12 +2562,20 @@
       <c r="B35" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="I35" s="1" t="s">
         <v>22</v>
       </c>
@@ -2443,12 +2591,24 @@
       <c r="M35" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
+      <c r="N35" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>229</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="T35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2466,12 +2626,20 @@
       <c r="B36" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="I36" s="1" t="s">
         <v>22</v>
       </c>
@@ -2487,12 +2655,24 @@
       <c r="M36" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
+      <c r="N36" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>229</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="T36" s="1" t="s">
         <v>30</v>
       </c>
@@ -2510,12 +2690,20 @@
       <c r="B37" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="I37" s="1" t="s">
         <v>22</v>
       </c>
@@ -2531,12 +2719,24 @@
       <c r="M37" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
+      <c r="N37" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>229</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="T37" s="1" t="s">
         <v>30</v>
       </c>
@@ -2554,12 +2754,20 @@
       <c r="B38" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="I38" s="1" t="s">
         <v>22</v>
       </c>
@@ -2575,12 +2783,24 @@
       <c r="M38" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
+      <c r="N38" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>229</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="T38" s="1" t="s">
         <v>30</v>
       </c>
@@ -2598,12 +2818,24 @@
       <c r="B39" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" s="1">
+        <v>229</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="I39" s="1" t="s">
         <v>22</v>
       </c>
@@ -2619,12 +2851,24 @@
       <c r="M39" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
+      <c r="N39" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>229</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="T39" s="1" t="s">
         <v>30</v>
       </c>
@@ -2642,12 +2886,24 @@
       <c r="B40" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="1">
+        <v>229</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="I40" s="1" t="s">
         <v>22</v>
       </c>
@@ -2663,12 +2919,24 @@
       <c r="M40" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
+      <c r="N40" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>229</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="T40" s="1" t="s">
         <v>30</v>
       </c>
@@ -2686,12 +2954,24 @@
       <c r="B41" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="1">
+        <v>229</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="I41" s="1" t="s">
         <v>22</v>
       </c>
@@ -2707,12 +2987,24 @@
       <c r="M41" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
+      <c r="N41" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>229</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="T41" s="1" t="s">
         <v>30</v>
       </c>
@@ -2730,12 +3022,24 @@
       <c r="B42" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="1">
+        <v>229</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="I42" s="1" t="s">
         <v>22</v>
       </c>
@@ -2751,12 +3055,24 @@
       <c r="M42" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
+      <c r="N42" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>229</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="T42" s="1" t="s">
         <v>30</v>
       </c>
@@ -2774,12 +3090,24 @@
       <c r="B43" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="1">
+        <v>229</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="I43" s="1" t="s">
         <v>22</v>
       </c>
@@ -2795,12 +3123,24 @@
       <c r="M43" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
+      <c r="N43" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>229</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="T43" s="1" t="s">
         <v>30</v>
       </c>
@@ -2818,12 +3158,24 @@
       <c r="B44" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I44" s="1" t="s">
         <v>22</v>
       </c>
@@ -2839,12 +3191,24 @@
       <c r="M44" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
+      <c r="N44" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>236</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S44" s="1">
+        <v>36</v>
+      </c>
       <c r="T44" s="1" t="s">
         <v>30</v>
       </c>
@@ -2862,12 +3226,24 @@
       <c r="B45" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I45" s="1" t="s">
         <v>22</v>
       </c>
@@ -2883,12 +3259,24 @@
       <c r="M45" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
+      <c r="N45" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>236</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="S45" s="1">
+        <v>36</v>
+      </c>
       <c r="T45" s="1" t="s">
         <v>30</v>
       </c>
@@ -2906,12 +3294,24 @@
       <c r="B46" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I46" s="1" t="s">
         <v>22</v>
       </c>
@@ -2927,12 +3327,24 @@
       <c r="M46" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
+      <c r="N46" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="T46" s="1" t="s">
         <v>155</v>
       </c>
@@ -2950,12 +3362,24 @@
       <c r="B47" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I47" s="1" t="s">
         <v>22</v>
       </c>
@@ -2971,12 +3395,24 @@
       <c r="M47" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
+      <c r="N47" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="T47" s="1" t="s">
         <v>155</v>
       </c>
@@ -2994,12 +3430,24 @@
       <c r="B48" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I48" s="1" t="s">
         <v>22</v>
       </c>
@@ -3015,12 +3463,24 @@
       <c r="M48" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
+      <c r="N48" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="T48" s="1" t="s">
         <v>155</v>
       </c>
@@ -3038,12 +3498,24 @@
       <c r="B49" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I49" s="1" t="s">
         <v>22</v>
       </c>
@@ -3059,12 +3531,24 @@
       <c r="M49" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
+      <c r="N49" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="T49" s="1" t="s">
         <v>155</v>
       </c>
@@ -3082,12 +3566,24 @@
       <c r="B50" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F50" s="1">
+        <v>236</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I50" s="1" t="s">
         <v>22</v>
       </c>
@@ -3103,12 +3599,24 @@
       <c r="M50" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
+      <c r="N50" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>236</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="T50" s="1" t="s">
         <v>30</v>
       </c>
@@ -3126,12 +3634,24 @@
       <c r="B51" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F51" s="1">
+        <v>236</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I51" s="1" t="s">
         <v>22</v>
       </c>
@@ -3147,12 +3667,24 @@
       <c r="M51" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
+      <c r="N51" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>236</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="T51" s="1" t="s">
         <v>30</v>
       </c>
@@ -3170,12 +3702,24 @@
       <c r="B52" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52" s="1">
+        <v>236</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I52" s="1" t="s">
         <v>22</v>
       </c>
@@ -3191,12 +3735,24 @@
       <c r="M52" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
+      <c r="N52" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>236</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="T52" s="1" t="s">
         <v>30</v>
       </c>
@@ -3214,12 +3770,24 @@
       <c r="B53" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F53" s="1">
+        <v>236</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I53" s="1" t="s">
         <v>22</v>
       </c>
@@ -3235,12 +3803,24 @@
       <c r="M53" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
+      <c r="N53" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>236</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="T53" s="1" t="s">
         <v>30</v>
       </c>
@@ -3258,12 +3838,24 @@
       <c r="B54" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F54" s="1">
+        <v>242</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="I54" s="1" t="s">
         <v>22</v>
       </c>
@@ -3279,12 +3871,24 @@
       <c r="M54" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
+      <c r="N54" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>236</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="T54" s="1" t="s">
         <v>30</v>
       </c>
@@ -3302,12 +3906,24 @@
       <c r="B55" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F55" s="1">
+        <v>242</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="I55" s="1" t="s">
         <v>22</v>
       </c>
@@ -3323,12 +3939,24 @@
       <c r="M55" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
+      <c r="N55" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>236</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="T55" s="1" t="s">
         <v>30</v>
       </c>
@@ -3346,12 +3974,24 @@
       <c r="B56" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" s="1">
+        <v>242</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="I56" s="1" t="s">
         <v>22</v>
       </c>
@@ -3367,12 +4007,24 @@
       <c r="M56" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
+      <c r="N56" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>236</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="T56" s="1" t="s">
         <v>30</v>
       </c>
@@ -3390,12 +4042,24 @@
       <c r="B57" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F57" s="1">
+        <v>242</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="I57" s="1" t="s">
         <v>22</v>
       </c>
@@ -3411,12 +4075,24 @@
       <c r="M57" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-      <c r="S57" s="1"/>
+      <c r="N57" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>236</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="T57" s="1" t="s">
         <v>30</v>
       </c>
@@ -3434,12 +4110,24 @@
       <c r="B58" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
+      <c r="C58" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F58" s="1">
+        <v>236</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="I58" s="1" t="s">
         <v>22</v>
       </c>
@@ -3455,12 +4143,24 @@
       <c r="M58" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
+      <c r="N58" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>236</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="T58" s="1" t="s">
         <v>30</v>
       </c>
@@ -3478,12 +4178,24 @@
       <c r="B59" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F59" s="1">
+        <v>236</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="I59" s="1" t="s">
         <v>22</v>
       </c>
@@ -3499,12 +4211,24 @@
       <c r="M59" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
+      <c r="N59" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>236</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="T59" s="1" t="s">
         <v>30</v>
       </c>
@@ -3522,12 +4246,24 @@
       <c r="B60" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
+      <c r="C60" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F60" s="1">
+        <v>236</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="I60" s="1" t="s">
         <v>22</v>
       </c>
@@ -3543,12 +4279,24 @@
       <c r="M60" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
+      <c r="N60" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>236</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="T60" s="1" t="s">
         <v>30</v>
       </c>
@@ -3566,12 +4314,24 @@
       <c r="B61" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
+      <c r="C61" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F61" s="1">
+        <v>236</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="I61" s="1" t="s">
         <v>22</v>
       </c>
@@ -3587,12 +4347,24 @@
       <c r="M61" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
+      <c r="N61" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>236</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="T61" s="1" t="s">
         <v>30</v>
       </c>
